--- a/Design/일반 타워 리스트.xlsx
+++ b/Design/일반 타워 리스트.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\sub\SProjectDesign\Design\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\SUB\SProjectDesign\Design\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7D10F25D-ED54-47A3-BA13-DBAA8F0BBE68}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CFAEADBD-F635-4FD8-A03F-E926EE965531}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{41E7A6B6-CC06-49A1-81A3-52EDE7F04A23}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{41E7A6B6-CC06-49A1-81A3-52EDE7F04A23}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -42,10 +42,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>번호</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>타워 명</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -256,6 +252,10 @@
   </si>
   <si>
     <t>능력 합계</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Kind</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -342,9 +342,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 테마">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 테마">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -382,7 +382,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -488,7 +488,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -630,7 +630,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -641,7 +641,7 @@
   <dimension ref="B2:Q14"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="H14" sqref="H14"/>
+      <selection activeCell="K11" sqref="K11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -658,71 +658,74 @@
         <v>0</v>
       </c>
       <c r="H2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="3" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B3" t="s">
+        <v>52</v>
+      </c>
+      <c r="C3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D3" t="s">
+        <v>27</v>
+      </c>
+      <c r="E3" t="s">
         <v>1</v>
       </c>
-      <c r="C3" t="s">
-        <v>12</v>
-      </c>
-      <c r="D3" t="s">
-        <v>28</v>
-      </c>
-      <c r="E3" t="s">
+      <c r="F3" t="s">
         <v>2</v>
       </c>
-      <c r="F3" t="s">
-        <v>3</v>
-      </c>
       <c r="G3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="H3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I3" t="s">
         <v>5</v>
       </c>
-      <c r="I3" t="s">
+      <c r="J3" t="s">
         <v>6</v>
       </c>
-      <c r="J3" t="s">
+      <c r="K3" t="s">
+        <v>8</v>
+      </c>
+      <c r="L3" t="s">
+        <v>9</v>
+      </c>
+      <c r="M3" t="s">
         <v>7</v>
       </c>
-      <c r="K3" t="s">
-        <v>9</v>
-      </c>
-      <c r="L3" t="s">
+      <c r="N3" t="s">
         <v>10</v>
       </c>
-      <c r="M3" t="s">
-        <v>8</v>
-      </c>
-      <c r="N3" t="s">
-        <v>11</v>
-      </c>
       <c r="O3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="P3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="4" spans="2:17" x14ac:dyDescent="0.3">
+      <c r="B4">
+        <v>101</v>
+      </c>
       <c r="C4">
         <v>1</v>
       </c>
       <c r="D4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="H4">
         <v>3</v>
@@ -743,7 +746,7 @@
         <v>4</v>
       </c>
       <c r="N4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="P4">
         <f>SUM(H4:M4)</f>
@@ -751,20 +754,23 @@
       </c>
     </row>
     <row r="5" spans="2:17" ht="33" x14ac:dyDescent="0.3">
+      <c r="B5">
+        <v>201</v>
+      </c>
       <c r="C5">
         <v>2</v>
       </c>
       <c r="D5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="H5">
         <v>6</v>
@@ -791,17 +797,20 @@
       </c>
     </row>
     <row r="6" spans="2:17" ht="33" x14ac:dyDescent="0.3">
+      <c r="B6">
+        <v>202</v>
+      </c>
       <c r="C6">
         <v>3</v>
       </c>
       <c r="D6" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E6" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="G6" s="1"/>
       <c r="H6">
@@ -828,17 +837,20 @@
       </c>
     </row>
     <row r="7" spans="2:17" ht="33" x14ac:dyDescent="0.3">
+      <c r="B7">
+        <v>203</v>
+      </c>
       <c r="C7">
         <v>4</v>
       </c>
       <c r="D7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G7" s="1"/>
       <c r="H7">
@@ -865,17 +877,20 @@
       </c>
     </row>
     <row r="8" spans="2:17" ht="33" x14ac:dyDescent="0.3">
+      <c r="B8">
+        <v>204</v>
+      </c>
       <c r="C8">
         <v>5</v>
       </c>
       <c r="D8" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E8" t="s">
+        <v>22</v>
+      </c>
+      <c r="F8" s="1" t="s">
         <v>23</v>
-      </c>
-      <c r="F8" s="1" t="s">
-        <v>24</v>
       </c>
       <c r="G8" s="1"/>
       <c r="H8">
@@ -897,7 +912,7 @@
         <v>3</v>
       </c>
       <c r="N8" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="P8">
         <f t="shared" si="0"/>
@@ -905,17 +920,20 @@
       </c>
     </row>
     <row r="9" spans="2:17" ht="33" x14ac:dyDescent="0.3">
+      <c r="B9">
+        <v>301</v>
+      </c>
       <c r="D9" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E9" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G9" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H9">
         <v>7</v>
@@ -936,7 +954,7 @@
         <v>4</v>
       </c>
       <c r="N9" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="P9">
         <f t="shared" si="0"/>
@@ -948,17 +966,20 @@
       </c>
     </row>
     <row r="10" spans="2:17" ht="33" x14ac:dyDescent="0.3">
+      <c r="B10">
+        <v>302</v>
+      </c>
       <c r="D10" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E10" t="s">
+        <v>42</v>
+      </c>
+      <c r="F10" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="F10" s="1" t="s">
+      <c r="G10" t="s">
         <v>44</v>
-      </c>
-      <c r="G10" t="s">
-        <v>45</v>
       </c>
       <c r="H10">
         <v>6</v>
@@ -978,14 +999,17 @@
       </c>
     </row>
     <row r="11" spans="2:17" ht="33" x14ac:dyDescent="0.3">
+      <c r="B11">
+        <v>303</v>
+      </c>
       <c r="D11" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E11" t="s">
+        <v>45</v>
+      </c>
+      <c r="F11" s="1" t="s">
         <v>46</v>
-      </c>
-      <c r="F11" s="1" t="s">
-        <v>47</v>
       </c>
       <c r="H11">
         <v>7</v>
@@ -1005,17 +1029,20 @@
       </c>
     </row>
     <row r="12" spans="2:17" ht="33" x14ac:dyDescent="0.3">
+      <c r="B12">
+        <v>401</v>
+      </c>
       <c r="D12" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E12" t="s">
+        <v>37</v>
+      </c>
+      <c r="F12" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="F12" s="1" t="s">
+      <c r="G12" t="s">
         <v>39</v>
-      </c>
-      <c r="G12" t="s">
-        <v>40</v>
       </c>
       <c r="H12">
         <v>6</v>
@@ -1030,7 +1057,7 @@
         <v>6</v>
       </c>
       <c r="N12" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="P12">
         <f t="shared" si="0"/>
@@ -1042,17 +1069,20 @@
       </c>
     </row>
     <row r="13" spans="2:17" ht="33" x14ac:dyDescent="0.3">
+      <c r="B13">
+        <v>402</v>
+      </c>
       <c r="D13" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E13" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G13" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H13">
         <v>8</v>
@@ -1067,7 +1097,7 @@
         <v>7</v>
       </c>
       <c r="N13" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="P13">
         <f t="shared" si="0"/>
@@ -1075,17 +1105,20 @@
       </c>
     </row>
     <row r="14" spans="2:17" ht="33" x14ac:dyDescent="0.3">
+      <c r="B14">
+        <v>501</v>
+      </c>
       <c r="D14" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E14" t="s">
+        <v>48</v>
+      </c>
+      <c r="F14" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="G14" t="s">
         <v>49</v>
-      </c>
-      <c r="F14" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="G14" t="s">
-        <v>50</v>
       </c>
       <c r="P14">
         <f t="shared" si="0"/>
